--- a/output/20250214/result.xlsx
+++ b/output/20250214/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,293 +441,168 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Column</t>
+          <t>Category</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Baseline Value</t>
+          <t>Rule Number</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Candidate Value</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Discrepancy</t>
+          <t>Baseline Field Value</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Candidate Field Value</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TRX001</t>
+          <t xml:space="preserve">BHP       </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Customer_Name</t>
+          <t>FATAL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>John Smith</t>
+          <t>tolerance_check_1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>John Adam</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Mismatch</t>
-        </is>
+          <t>Differences are acceptable if &lt; 3, warnings if 3 &lt; difference &lt; 10, fatal if &gt; 10</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TRX004</t>
+          <t xml:space="preserve">WBC       </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Quantity</t>
+          <t>FATAL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>tolerance_check_1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Mismatch</t>
-        </is>
+          <t>Differences are acceptable if &lt; 3, warnings if 3 &lt; difference &lt; 10, fatal if &gt; 10</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TRX010</t>
+          <t xml:space="preserve">CBA       </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Quantity</t>
+          <t>FATAL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>tolerance_check_1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Mismatch</t>
-        </is>
+          <t>Differences are acceptable if &lt; 3, warnings if 3 &lt; difference &lt; 10, fatal if &gt; 10</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>103.2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TRX004</t>
+          <t xml:space="preserve">WBC       </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Total_Amount</t>
+          <t>FATAL</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>149.99</t>
+          <t>tolerance_check_1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>299.98</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Mismatch</t>
-        </is>
+          <t>Differences are acceptable if &lt; 3, warnings if 3 &lt; difference &lt; 10, fatal if &gt; 10</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TRX010</t>
+          <t xml:space="preserve">ANZ       </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Total_Amount</t>
+          <t>FATAL</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>199.96</t>
+          <t>tolerance_check_1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>149.97</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Mismatch</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>TRX002</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Mismatch</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>TRX005</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Cancelled</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Mismatch</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>TRX006</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Cancelled</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Mismatch</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>TRX007</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Mismatch</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>TRX008</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Mismatch</t>
-        </is>
+          <t>Differences are acceptable if &lt; 3, warnings if 3 &lt; difference &lt; 10, fatal if &gt; 10</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>29.15</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.15</v>
       </c>
     </row>
   </sheetData>

--- a/output/20250214/result.xlsx
+++ b/output/20250214/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,25 +441,30 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Rule Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Rule Number</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Baseline Field Value</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Candidate Field Value</t>
         </is>
@@ -473,23 +478,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>tolerance_check</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>FATAL</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>tolerance_check_1</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Differences are acceptable if &lt; 3, warnings if 3 &lt; difference &lt; 10, fatal if &gt; 10</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>45.2</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>4.2</v>
       </c>
     </row>
@@ -501,24 +511,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FATAL</t>
+          <t>tolerance_check</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>ACCEPTABLE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>tolerance_check_1</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Differences are acceptable if &lt; 3, warnings if 3 &lt; difference &lt; 10, fatal if &gt; 10</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>24.3</v>
       </c>
-      <c r="F3" t="n">
-        <v>2</v>
+      <c r="G3" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -529,24 +544,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FATAL</t>
+          <t>tolerance_check</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>tolerance_check_1</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Differences are acceptable if &lt; 3, warnings if 3 &lt; difference &lt; 10, fatal if &gt; 10</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>103.2</v>
       </c>
-      <c r="F4" t="n">
-        <v>13.2</v>
+      <c r="G4" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -557,23 +577,28 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>tolerance_check</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>FATAL</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>tolerance_check_1</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Differences are acceptable if &lt; 3, warnings if 3 &lt; difference &lt; 10, fatal if &gt; 10</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>24.1</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>4.1</v>
       </c>
     </row>
@@ -585,24 +610,194 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>tolerance_check</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>FATAL</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>tolerance_check_1</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Differences are acceptable if &lt; 3, warnings if 3 &lt; difference &lt; 10, fatal if &gt; 10</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>29.15</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>2.15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WBC       </t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>tolerance_check</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>FATAL</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>tolerance_check_1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Differences are acceptable if &lt; 3, warnings if 3 &lt; difference &lt; 10, fatal if &gt; 10</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="G7" t="n">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BHP       </t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Market_Cap_check</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ACCEPTABLE</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Market_Cap_check2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Market Cap &gt; Original Market Cap + delta is fatal if delta &gt;= 0.1</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>231.8</v>
+      </c>
+      <c r="G8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CSL       </t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Market_Cap_check</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ACCEPTABLE</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Market_Cap_check2</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Market Cap &gt; Original Market Cap + delta is fatal if delta &gt;= 0.1</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>141.5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RIO       </t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Market_Cap_check</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ACCEPTABLE</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Market_Cap_check2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Market Cap &gt; Original Market Cap + delta is fatal if delta &gt;= 0.1</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>47.7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ANZ       </t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Market_Cap_check</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ACCEPTABLE</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Market_Cap_check2</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Market Cap &gt; Original Market Cap + delta is fatal if delta &gt;= 0.1</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.1</v>
       </c>
     </row>
   </sheetData>

--- a/output/20250214/result.xlsx
+++ b/output/20250214/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>Stock Code</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -467,6 +467,11 @@
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Candidate Field Value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Column Name</t>
         </is>
       </c>
     </row>
@@ -502,6 +507,11 @@
       <c r="G2" t="n">
         <v>4.2</v>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -535,6 +545,11 @@
       <c r="G3" t="n">
         <v>23</v>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -568,6 +583,11 @@
       <c r="G4" t="n">
         <v>100</v>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -601,6 +621,11 @@
       <c r="G5" t="n">
         <v>4.1</v>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -634,6 +659,11 @@
       <c r="G6" t="n">
         <v>2.15</v>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -667,6 +697,11 @@
       <c r="G7" t="n">
         <v>12000</v>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -681,7 +716,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ACCEPTABLE</t>
+          <t>Warning</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -700,6 +735,11 @@
       <c r="G8" t="n">
         <v>100</v>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Market Cap</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -714,7 +754,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ACCEPTABLE</t>
+          <t>Warning</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -733,6 +773,11 @@
       <c r="G9" t="n">
         <v>141</v>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Market Cap</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -747,7 +792,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ACCEPTABLE</t>
+          <t>Warning</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -766,6 +811,11 @@
       <c r="G10" t="n">
         <v>47.7</v>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Market Cap</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -780,7 +830,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ACCEPTABLE</t>
+          <t>Warning</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -798,6 +848,11 @@
       </c>
       <c r="G11" t="n">
         <v>2.1</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Market Cap</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/output/20250214/result.xlsx
+++ b/output/20250214/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,42 +436,42 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Stock Code</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Column Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Rule Type</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Rule Number</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Baseline Field Value</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Candidate Field Value</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Column Name</t>
         </is>
       </c>
     </row>
@@ -483,34 +483,34 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>tolerance_check</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>FATAL</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>tolerance_check_1</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Differences are acceptable if &lt; 3, warnings if 3 &lt; difference &lt; 10, fatal if &gt; 10</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>45.2</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>4.2</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
       </c>
     </row>
     <row r="3">
@@ -521,34 +521,34 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>tolerance_check</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>ACCEPTABLE</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>tolerance_check_1</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Differences are acceptable if &lt; 3, warnings if 3 &lt; difference &lt; 10, fatal if &gt; 10</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>24.3</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>23</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
       </c>
     </row>
     <row r="4">
@@ -559,34 +559,34 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>tolerance_check</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>WARNING</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>tolerance_check_1</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Differences are acceptable if &lt; 3, warnings if 3 &lt; difference &lt; 10, fatal if &gt; 10</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>103.2</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>100</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Close</t>
-        </is>
       </c>
     </row>
     <row r="5">
@@ -597,34 +597,34 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>tolerance_check</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>FATAL</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>tolerance_check_1</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Differences are acceptable if &lt; 3, warnings if 3 &lt; difference &lt; 10, fatal if &gt; 10</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>24.1</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>4.1</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Close</t>
-        </is>
       </c>
     </row>
     <row r="6">
@@ -635,34 +635,34 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>tolerance_check</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>FATAL</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>tolerance_check_1</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Differences are acceptable if &lt; 3, warnings if 3 &lt; difference &lt; 10, fatal if &gt; 10</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>29.15</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>2.15</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Close</t>
-        </is>
       </c>
     </row>
     <row r="7">
@@ -673,34 +673,34 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>tolerance_check</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>FATAL</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>tolerance_check_1</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Differences are acceptable if &lt; 3, warnings if 3 &lt; difference &lt; 10, fatal if &gt; 10</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>1200000</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>12000</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Volume</t>
-        </is>
       </c>
     </row>
     <row r="8">
@@ -711,34 +711,34 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Market Cap</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Market_Cap_check</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Warning</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Market_Cap_check2</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Market Cap &gt; Original Market Cap + delta is fatal if delta &gt;= 0.1</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>231.8</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>100</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Market Cap</t>
-        </is>
       </c>
     </row>
     <row r="9">
@@ -749,34 +749,34 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Market Cap</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>Market_Cap_check</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Warning</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Market_Cap_check2</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Market Cap &gt; Original Market Cap + delta is fatal if delta &gt;= 0.1</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>141.5</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>141</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Market Cap</t>
-        </is>
       </c>
     </row>
     <row r="10">
@@ -787,34 +787,34 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Market Cap</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>Market_Cap_check</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Warning</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Market_Cap_check2</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Market Cap &gt; Original Market Cap + delta is fatal if delta &gt;= 0.1</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>47.2</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>47.7</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Market Cap</t>
-        </is>
       </c>
     </row>
     <row r="11">
@@ -825,33 +825,117 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Market Cap</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>Market_Cap_check</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Warning</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Market_Cap_check2</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Market Cap &gt; Original Market Cap + delta is fatal if delta &gt;= 0.1</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>82.09999999999999</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>2.1</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Market Cap</t>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Achal   </t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ALL</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Extra Row in Candidate</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Extra_Row_Candidate</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Row exists in candidate but is missing in baseline.</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>MISSING</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>{'Stock Code': 'Achal   ', 'Company Name': ' ANZ Banking Group  ', 'Sector': ' Healthcare     ', 'Open': 28.9, 'Close': 2.15, 'Volume': 950000, 'Trade Date': ' 2024-03-01 ', 'Market Cap': 2.1}</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joshi     </t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ALL</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Extra Row in Baseline</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Extra_Row_Baseline</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Row exists in baseline but is missing in candidate.</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>{'Stock Code': 'Joshi     ', 'Company Name': ' ANZ Banking Group  ', 'Sector': ' Financials     ', 'Open': 28.9, 'Close': 29.15, 'Volume': 950000, 'Trade Date': ' 2024-03-01 ', 'Market Cap': 82.1}</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>MISSING</t>
         </is>
       </c>
     </row>
